--- a/Respostas.xlsx
+++ b/Respostas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29108"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01879CDA-4CC9-44A6-B71D-E81FFECA330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C4879B-2670-4E13-ACB5-49F55D6792CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="16212" windowHeight="8448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="16212" windowHeight="8448" firstSheet="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classe" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Componentes" sheetId="8" r:id="rId8"/>
     <sheet name="Máquina de estados" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2688,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2875,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" activeCellId="4" sqref="C19:C21 C13 C10 C6 C5"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3406,6 +3406,134 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15"/>
+    <row r="72" spans="1:8">
+      <c r="A72" cm="1">
+        <f t="array" ref="A72">SUM(--ISNUMBER(SEARCH(".N.", $A$2:$A$42)))</f>
+        <v>10</v>
+      </c>
+      <c r="B72" cm="1">
+        <f t="array" ref="B72">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(B$2:B$71="✅"))/$A$72</f>
+        <v>0.8</v>
+      </c>
+      <c r="C72" cm="1">
+        <f t="array" ref="C72">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(C$2:C$71="✅"))/$A$72</f>
+        <v>0.9</v>
+      </c>
+      <c r="D72" cm="1">
+        <f t="array" ref="D72">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(D$2:D$71="✅"))/$A$72</f>
+        <v>0.8</v>
+      </c>
+      <c r="E72" cm="1">
+        <f t="array" ref="E72">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(E$2:E$71="✅"))/$A$72</f>
+        <v>0.7</v>
+      </c>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(F$2:F$71="✅"))/$A$72</f>
+        <v>0.6</v>
+      </c>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(G$2:G$71="✅"))/$A$72</f>
+        <v>0.7</v>
+      </c>
+      <c r="H72" cm="1">
+        <f t="array" ref="H72">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(H$2:H$71="✅"))/$A$72</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" cm="1">
+        <f t="array" ref="A73">SUM(--ISNUMBER(SEARCH(".R.", $A$2:$A$42)))</f>
+        <v>7</v>
+      </c>
+      <c r="B73" cm="1">
+        <f t="array" ref="B73">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(B$2:B$71="✅"))/$A$73</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C73" cm="1">
+        <f t="array" ref="C73">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(C$2:C$71="✅"))/$A$73</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D73" cm="1">
+        <f t="array" ref="D73">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(D$2:D$71="✅"))/$A$73</f>
+        <v>1</v>
+      </c>
+      <c r="E73" cm="1">
+        <f t="array" ref="E73">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(E$2:E$71="✅"))/$A$73</f>
+        <v>1</v>
+      </c>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(F$2:F$71="✅"))/$A$73</f>
+        <v>0</v>
+      </c>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(G$2:G$71="✅"))/$A$73</f>
+        <v>0</v>
+      </c>
+      <c r="H73" cm="1">
+        <f t="array" ref="H73">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(H$2:H$71="✅"))/$A$73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" cm="1">
+        <f t="array" ref="B74">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(B$2:B$71="✅"))</f>
+        <v>8</v>
+      </c>
+      <c r="C74" cm="1">
+        <f t="array" ref="C74">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(C$2:C$71="✅"))</f>
+        <v>9</v>
+      </c>
+      <c r="D74" cm="1">
+        <f t="array" ref="D74">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(D$2:D$71="✅"))</f>
+        <v>8</v>
+      </c>
+      <c r="E74" cm="1">
+        <f t="array" ref="E74">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(E$2:E$71="✅"))</f>
+        <v>7</v>
+      </c>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(F$2:F$71="✅"))</f>
+        <v>6</v>
+      </c>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(G$2:G$71="✅"))</f>
+        <v>7</v>
+      </c>
+      <c r="H74" cm="1">
+        <f t="array" ref="H74">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$2:$A$71)), --(H$2:H$71="✅"))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" cm="1">
+        <f t="array" ref="B75">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(B$2:B$71="✅"))</f>
+        <v>5</v>
+      </c>
+      <c r="C75" cm="1">
+        <f t="array" ref="C75">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(C$2:C$71="✅"))</f>
+        <v>4</v>
+      </c>
+      <c r="D75" cm="1">
+        <f t="array" ref="D75">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(D$2:D$71="✅"))</f>
+        <v>7</v>
+      </c>
+      <c r="E75" cm="1">
+        <f t="array" ref="E75">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(E$2:E$71="✅"))</f>
+        <v>7</v>
+      </c>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(F$2:F$71="✅"))</f>
+        <v>0</v>
+      </c>
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(G$2:G$71="✅"))</f>
+        <v>0</v>
+      </c>
+      <c r="H75" cm="1">
+        <f t="array" ref="H75">SUMPRODUCT(--ISNUMBER(SEARCH(".R.", $A$2:$A$71)), --(H$2:H$71="✅"))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3416,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C20" activeCellId="8" sqref="C57 C52 C47 C44 C37:C39 C32 C29 C23:C26 C15:C20"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4679,7 +4807,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C8:C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4758,7 +4886,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -4931,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" activeCellId="2" sqref="C18 C17 C9:C14"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4975,8 +5103,8 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -5011,8 +5139,8 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -5047,8 +5175,8 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
@@ -5354,8 +5482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" activeCellId="15" sqref="C68:C70 C63 C62 C57 C54 C49 C48 C44 C43 C40 C39 C34 C29:C31 C24:C26 C19:C21 C14"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6866,7 +6994,7 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="C12 C8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7254,7 +7382,7 @@
   <dimension ref="A2:H50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:H44"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8281,36 +8409,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15"/>
-    <row r="44" spans="1:8" ht="15">
-      <c r="B44" cm="1">
-        <f t="array" aca="1" ref="B44" ca="1">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$3:$A$44)), --(B$3:B$44="✅"))</f>
-        <v>0</v>
-      </c>
-      <c r="C44" cm="1">
-        <f t="array" aca="1" ref="C44" ca="1">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$3:$A$44)), --(C$3:C$44="✅"))</f>
-        <v>0</v>
-      </c>
-      <c r="D44" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$3:$A$44)), --(D$3:D$44="✅"))</f>
-        <v>0</v>
-      </c>
-      <c r="E44" cm="1">
-        <f t="array" aca="1" ref="E44" ca="1">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$3:$A$44)), --(E$3:E$44="✅"))</f>
-        <v>0</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" aca="1" ref="F44" ca="1">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$3:$A$44)), --(F$3:F$44="✅"))</f>
-        <v>0</v>
-      </c>
-      <c r="G44" cm="1">
-        <f t="array" aca="1" ref="G44" ca="1">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$3:$A$44)), --(G$3:G$44="✅"))</f>
-        <v>0</v>
-      </c>
-      <c r="H44" cm="1">
-        <f t="array" aca="1" ref="H44" ca="1">SUMPRODUCT(--ISNUMBER(SEARCH(".N.", $A$3:$A$44)), --(H$3:H$44="✅"))</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="44" spans="1:8" ht="15"/>
     <row r="45" spans="1:8" ht="15"/>
     <row r="46" spans="1:8" ht="15"/>
     <row r="47" spans="1:8" ht="15"/>
